--- a/prestandabudget.xlsx
+++ b/prestandabudget.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>PRESTANDABUDGET</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>Our site:</t>
+  </si>
+  <si>
+    <t>17 ms</t>
+  </si>
+  <si>
+    <t>72 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Img downloading : </t>
+  </si>
+  <si>
+    <t>Css downloading</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>0ms</t>
   </si>
 </sst>
 </file>
@@ -552,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F14"/>
+  <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,6 +729,40 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
